--- a/uploads/employeecards.xlsx
+++ b/uploads/employeecards.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\pROJECTS\Identity\IdentityCardGenerator\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>First Name</t>
   </si>
@@ -126,19 +126,46 @@
   </si>
   <si>
     <t>SELEMANI</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>FIELD SUPERVISOR</t>
+  </si>
+  <si>
+    <t>ASSISTANCE WATER AND SOIL ANALYSTS</t>
+  </si>
+  <si>
+    <t>HEADMAN</t>
+  </si>
+  <si>
+    <t>AGRICULTURAL DATA CLERK</t>
+  </si>
+  <si>
+    <t>SOIL AND WATER ANALYST</t>
+  </si>
+  <si>
+    <t>FARM OFFICER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,12 +184,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,11 +501,12 @@
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +525,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -498,8 +548,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -518,8 +571,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -538,8 +594,11 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -558,8 +617,11 @@
       <c r="F5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -578,8 +640,11 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -598,8 +663,11 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -618,8 +686,11 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -638,8 +709,11 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -658,8 +732,12 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -678,8 +756,12 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -698,6 +780,10 @@
       <c r="F12" t="s">
         <v>8</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
